--- a/task2_testcase/Data.xlsx
+++ b/task2_testcase/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coursework\Senior\Fall 22'\Aero417\gasprop\RealCycle\RealEngineCycle_TurboProp\task2_testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albert juarez\PycharmProjects\417\task1\RealEngineCycle_TurboProp\task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3D1672-5A78-4A9F-A634-5F15D26FFCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3017D09-09F7-41DA-81BE-E59C130C4112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26047" yWindow="2910" windowWidth="18164" windowHeight="11310" xr2:uid="{94EC9EFC-137E-4331-865C-5AC272FBCB17}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{94EC9EFC-137E-4331-865C-5AC272FBCB17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,15 +429,15 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -453,23 +453,23 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -477,7 +477,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -485,31 +485,31 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>288.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>24.07</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -517,7 +517,7 @@
         <v>288.16000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -525,7 +525,7 @@
         <v>1.01325</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
